--- a/public/Borang_Tempahan.XLSX
+++ b/public/Borang_Tempahan.XLSX
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9A80B3-62DF-4DC3-A310-F3DB0C58722C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A846D5F-0D45-4BC4-AD6B-0286896C0E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="570" windowWidth="20370" windowHeight="10395" tabRatio="374" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="374" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Borang Tempahan" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="104">
   <si>
     <t>:</t>
   </si>
@@ -341,9 +341,6 @@
   </si>
   <si>
     <t>CATATAN : Tiada</t>
-  </si>
-  <si>
-    <t>: Tiada</t>
   </si>
   <si>
     <t>BBQ</t>
@@ -793,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -881,12 +878,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -933,6 +924,150 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -960,21 +1095,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -982,15 +1108,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -999,151 +1116,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1497,8 +1488,8 @@
   </sheetPr>
   <dimension ref="B1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S84" sqref="S84"/>
+    <sheetView topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1515,78 +1506,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
+      <c r="B1" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
     </row>
     <row r="2" spans="2:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="81"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="124"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="N3" s="113" t="s">
+      <c r="N3" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="114"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="111"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="63"/>
     </row>
     <row r="4" spans="2:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="112"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="64"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="N5" s="119" t="s">
+      <c r="N5" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="120"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="111" t="s">
+      <c r="O5" s="72"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="63" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="112"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="64"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -1598,7 +1589,7 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -1655,24 +1646,24 @@
       <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="84"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="80"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
@@ -1750,24 +1741,24 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="84"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="80"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
@@ -1821,10 +1812,10 @@
     </row>
     <row r="23" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
-      <c r="J23" s="128" t="s">
+      <c r="J23" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="128"/>
+      <c r="K23" s="90"/>
       <c r="L23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1835,49 +1826,49 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="84"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="80"/>
     </row>
     <row r="26" spans="2:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="53"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="52"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="50"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="126" t="s">
+      <c r="B27" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
       <c r="E27" s="12" t="s">
         <v>1</v>
       </c>
@@ -1895,11 +1886,11 @@
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="126" t="s">
+      <c r="B28" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
       <c r="E28" s="12" t="s">
         <v>1</v>
       </c>
@@ -1935,11 +1926,11 @@
       <c r="Q29" s="11"/>
     </row>
     <row r="30" spans="2:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
       <c r="E30" s="15" t="s">
         <v>31</v>
       </c>
@@ -1949,11 +1940,11 @@
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="90" t="s">
+      <c r="J30" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="K30" s="91"/>
-      <c r="L30" s="92"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="103"/>
       <c r="M30" s="15" t="s">
         <v>31</v>
       </c>
@@ -1984,24 +1975,24 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="84"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="80"/>
     </row>
     <row r="36" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
@@ -2019,244 +2010,244 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="125" t="s">
+      <c r="B37" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="K37" s="104" t="s">
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="K37" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="105"/>
-      <c r="O37" s="105"/>
-      <c r="P37" s="105"/>
-      <c r="Q37" s="106"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="83"/>
     </row>
     <row r="38" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="97" t="s">
+      <c r="B38" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="62" t="s">
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="97" t="s">
+      <c r="F38" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="62" t="s">
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="K38" s="97" t="s">
+      <c r="K38" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L38" s="97"/>
-      <c r="M38" s="97"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="104" t="s">
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="P38" s="105"/>
-      <c r="Q38" s="106"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="83"/>
     </row>
     <row r="39" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="93" t="s">
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
       <c r="I39" s="19"/>
-      <c r="K39" s="93" t="s">
+      <c r="K39" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="94"/>
       <c r="O39" s="20"/>
-      <c r="P39" s="61"/>
+      <c r="P39" s="59"/>
       <c r="Q39" s="21"/>
     </row>
     <row r="40" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="98" t="s">
+      <c r="B40" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="93" t="s">
+      <c r="F40" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="58"/>
-      <c r="K40" s="93" t="s">
-        <v>104</v>
-      </c>
-      <c r="L40" s="93"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="56"/>
+      <c r="K40" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
       <c r="O40" s="20"/>
-      <c r="P40" s="61"/>
+      <c r="P40" s="59"/>
       <c r="Q40" s="21"/>
     </row>
     <row r="41" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="93" t="s">
+      <c r="F41" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="93"/>
-      <c r="H41" s="93"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
       <c r="I41" s="19"/>
-      <c r="K41" s="93" t="s">
+      <c r="K41" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="L41" s="93"/>
-      <c r="M41" s="93"/>
-      <c r="N41" s="93"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
       <c r="O41" s="20"/>
-      <c r="P41" s="61"/>
+      <c r="P41" s="59"/>
       <c r="Q41" s="21"/>
     </row>
     <row r="42" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="93" t="s">
+      <c r="F42" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
       <c r="I42" s="19"/>
-      <c r="K42" s="107" t="s">
+      <c r="K42" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
-      <c r="N42" s="109"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="98"/>
+      <c r="N42" s="99"/>
       <c r="O42" s="20"/>
-      <c r="P42" s="61"/>
+      <c r="P42" s="59"/>
       <c r="Q42" s="21"/>
     </row>
     <row r="43" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="93" t="s">
+      <c r="F43" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
       <c r="I43" s="19"/>
-      <c r="K43" s="107" t="s">
+      <c r="K43" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="L43" s="108"/>
-      <c r="M43" s="108"/>
-      <c r="N43" s="109"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="98"/>
+      <c r="N43" s="99"/>
       <c r="O43" s="20"/>
-      <c r="P43" s="61"/>
+      <c r="P43" s="59"/>
       <c r="Q43" s="21"/>
     </row>
     <row r="44" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="99"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="101"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="110"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="96"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="106"/>
       <c r="I44" s="19"/>
-      <c r="K44" s="107" t="s">
+      <c r="K44" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="L44" s="108"/>
-      <c r="M44" s="108"/>
-      <c r="N44" s="109"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
+      <c r="N44" s="99"/>
       <c r="O44" s="20"/>
-      <c r="P44" s="61"/>
+      <c r="P44" s="59"/>
       <c r="Q44" s="21"/>
     </row>
     <row r="45" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
       <c r="E45" s="19"/>
-      <c r="F45" s="93" t="s">
+      <c r="F45" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="93"/>
-      <c r="H45" s="93"/>
-      <c r="I45" s="58"/>
-      <c r="K45" s="107" t="s">
+      <c r="G45" s="94"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="56"/>
+      <c r="K45" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="L45" s="108"/>
-      <c r="M45" s="108"/>
-      <c r="N45" s="109"/>
+      <c r="L45" s="98"/>
+      <c r="M45" s="98"/>
+      <c r="N45" s="99"/>
       <c r="O45" s="20"/>
-      <c r="P45" s="61"/>
+      <c r="P45" s="59"/>
       <c r="Q45" s="21"/>
     </row>
     <row r="46" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
-      <c r="K46" s="107" t="s">
+      <c r="K46" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="L46" s="108"/>
-      <c r="M46" s="108"/>
-      <c r="N46" s="109"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="98"/>
+      <c r="N46" s="99"/>
       <c r="O46" s="20"/>
-      <c r="P46" s="61"/>
+      <c r="P46" s="59"/>
       <c r="Q46" s="21"/>
     </row>
     <row r="47" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K47" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="K47" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="L47" s="93"/>
-      <c r="M47" s="93"/>
-      <c r="N47" s="93"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="94"/>
       <c r="O47" s="20"/>
-      <c r="P47" s="61"/>
+      <c r="P47" s="59"/>
       <c r="Q47" s="21"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
       <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2270,24 +2261,24 @@
       <c r="Q49" s="23"/>
     </row>
     <row r="50" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="82" t="s">
+      <c r="B50" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="83"/>
-      <c r="N50" s="83"/>
-      <c r="O50" s="83"/>
-      <c r="P50" s="83"/>
-      <c r="Q50" s="84"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="79"/>
+      <c r="O50" s="79"/>
+      <c r="P50" s="79"/>
+      <c r="Q50" s="80"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="24"/>
@@ -2358,10 +2349,10 @@
     </row>
     <row r="58" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
-      <c r="C58" s="102" t="s">
+      <c r="C58" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="103"/>
+      <c r="D58" s="96"/>
       <c r="E58" s="27" t="s">
         <v>15</v>
       </c>
@@ -2402,8 +2393,8 @@
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="78"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="93"/>
       <c r="E59" s="30" t="s">
         <v>56</v>
       </c>
@@ -2432,8 +2423,8 @@
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="78"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="93"/>
       <c r="E60" s="30" t="s">
         <v>56</v>
       </c>
@@ -2462,8 +2453,8 @@
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="78"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="93"/>
       <c r="E61" s="30" t="s">
         <v>56</v>
       </c>
@@ -2492,8 +2483,8 @@
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="78"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="93"/>
       <c r="E62" s="30" t="s">
         <v>56</v>
       </c>
@@ -2522,8 +2513,8 @@
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="78"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="93"/>
       <c r="E63" s="30" t="s">
         <v>56</v>
       </c>
@@ -2552,8 +2543,8 @@
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="78"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
       <c r="E64" s="30" t="s">
         <v>56</v>
       </c>
@@ -2582,8 +2573,8 @@
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
-      <c r="C65" s="77"/>
-      <c r="D65" s="78"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="93"/>
       <c r="E65" s="30" t="s">
         <v>56</v>
       </c>
@@ -2612,8 +2603,8 @@
     </row>
     <row r="66" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
-      <c r="C66" s="75"/>
-      <c r="D66" s="76"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="121"/>
       <c r="E66" s="33" t="s">
         <v>73</v>
       </c>
@@ -2642,8 +2633,8 @@
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
+      <c r="C67" s="100"/>
+      <c r="D67" s="100"/>
       <c r="E67" s="38" t="s">
         <v>76</v>
       </c>
@@ -2666,8 +2657,8 @@
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="74"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="100"/>
       <c r="E68" s="38" t="s">
         <v>76</v>
       </c>
@@ -2690,8 +2681,8 @@
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="74"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="100"/>
       <c r="E69" s="38" t="s">
         <v>76</v>
       </c>
@@ -2714,8 +2705,8 @@
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="100"/>
       <c r="E70" s="38" t="s">
         <v>76</v>
       </c>
@@ -2738,8 +2729,8 @@
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="100"/>
       <c r="E71" s="38" t="s">
         <v>76</v>
       </c>
@@ -2762,10 +2753,10 @@
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
-      <c r="C72" s="55" t="s">
+      <c r="C72" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="P72" s="54"/>
+      <c r="P72" s="52"/>
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.25">
@@ -2773,10 +2764,10 @@
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B74" s="85" t="s">
+      <c r="B74" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="86"/>
+      <c r="C74" s="126"/>
       <c r="D74" s="1" t="s">
         <v>1</v>
       </c>
@@ -2789,10 +2780,10 @@
       <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H75" s="42" t="s">
+      <c r="H75" s="40" t="s">
         <v>24</v>
       </c>
       <c r="Q75" s="3"/>
@@ -2802,7 +2793,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="Q76" s="3"/>
     </row>
@@ -2815,93 +2806,93 @@
       <c r="Q78" s="3"/>
     </row>
     <row r="79" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B79" s="66" t="s">
+      <c r="B79" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="67"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="67"/>
-      <c r="J79" s="67"/>
-      <c r="K79" s="67"/>
-      <c r="L79" s="67"/>
-      <c r="M79" s="67"/>
-      <c r="N79" s="67"/>
-      <c r="O79" s="67"/>
-      <c r="P79" s="67"/>
-      <c r="Q79" s="68"/>
+      <c r="C79" s="113"/>
+      <c r="D79" s="113"/>
+      <c r="E79" s="113"/>
+      <c r="F79" s="113"/>
+      <c r="G79" s="113"/>
+      <c r="H79" s="113"/>
+      <c r="I79" s="113"/>
+      <c r="J79" s="113"/>
+      <c r="K79" s="113"/>
+      <c r="L79" s="113"/>
+      <c r="M79" s="113"/>
+      <c r="N79" s="113"/>
+      <c r="O79" s="113"/>
+      <c r="P79" s="113"/>
+      <c r="Q79" s="114"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B80" s="69" t="s">
+      <c r="B80" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="70"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="72" t="s">
+      <c r="C80" s="116"/>
+      <c r="D80" s="116"/>
+      <c r="E80" s="116"/>
+      <c r="F80" s="116"/>
+      <c r="G80" s="117"/>
+      <c r="H80" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="I80" s="70"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="72" t="s">
+      <c r="I80" s="116"/>
+      <c r="J80" s="117"/>
+      <c r="K80" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="L80" s="70"/>
-      <c r="M80" s="71"/>
-      <c r="N80" s="72" t="s">
+      <c r="L80" s="116"/>
+      <c r="M80" s="117"/>
+      <c r="N80" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="O80" s="70"/>
-      <c r="P80" s="70"/>
-      <c r="Q80" s="73"/>
+      <c r="O80" s="116"/>
+      <c r="P80" s="116"/>
+      <c r="Q80" s="119"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="43"/>
-      <c r="E81" s="44" t="s">
+      <c r="D81" s="41"/>
+      <c r="E81" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="43"/>
-      <c r="H81" s="44" t="s">
+      <c r="G81" s="41"/>
+      <c r="H81" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="J81" s="43"/>
-      <c r="K81" s="44" t="s">
+      <c r="J81" s="41"/>
+      <c r="K81" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="M81" s="43"/>
-      <c r="N81" s="44" t="s">
+      <c r="M81" s="41"/>
+      <c r="N81" s="42" t="s">
         <v>86</v>
       </c>
       <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="44"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="44"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="44"/>
-      <c r="M82" s="43"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="42"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="42"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="42"/>
+      <c r="M82" s="41"/>
       <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="2:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="44"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="44"/>
-      <c r="J83" s="43"/>
-      <c r="K83" s="44"/>
-      <c r="M83" s="43"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="42"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="42"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="42"/>
+      <c r="M83" s="41"/>
       <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
@@ -2911,29 +2902,29 @@
       <c r="C84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D84" s="43"/>
-      <c r="E84" s="44" t="s">
+      <c r="D84" s="41"/>
+      <c r="E84" s="42" t="s">
         <v>26</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44" t="s">
+      <c r="G84" s="41"/>
+      <c r="H84" s="42" t="s">
         <v>26</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J84" s="43"/>
-      <c r="K84" s="44" t="s">
+      <c r="J84" s="41"/>
+      <c r="K84" s="42" t="s">
         <v>26</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M84" s="43"/>
-      <c r="N84" s="44" t="s">
+      <c r="M84" s="41"/>
+      <c r="N84" s="42" t="s">
         <v>26</v>
       </c>
       <c r="O84" s="1" t="s">
@@ -2948,29 +2939,29 @@
       <c r="C85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="43"/>
-      <c r="E85" s="44" t="s">
+      <c r="D85" s="41"/>
+      <c r="E85" s="42" t="s">
         <v>22</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G85" s="43"/>
-      <c r="H85" s="44" t="s">
+      <c r="G85" s="41"/>
+      <c r="H85" s="42" t="s">
         <v>22</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J85" s="43"/>
-      <c r="K85" s="44" t="s">
+      <c r="J85" s="41"/>
+      <c r="K85" s="42" t="s">
         <v>22</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M85" s="43"/>
-      <c r="N85" s="44" t="s">
+      <c r="M85" s="41"/>
+      <c r="N85" s="42" t="s">
         <v>22</v>
       </c>
       <c r="O85" s="1" t="s">
@@ -2980,35 +2971,87 @@
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="44"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="44"/>
-      <c r="J86" s="43"/>
-      <c r="K86" s="44"/>
-      <c r="M86" s="43"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="42"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="42"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="42"/>
+      <c r="M86" s="41"/>
       <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="45"/>
-      <c r="C87" s="46"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="46"/>
-      <c r="J87" s="47"/>
-      <c r="K87" s="48"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="47"/>
-      <c r="N87" s="46"/>
-      <c r="O87" s="46"/>
-      <c r="P87" s="46"/>
-      <c r="Q87" s="49"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="45"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B79:Q79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B50:Q50"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="N3:P4"/>
@@ -3025,58 +3068,6 @@
     <mergeCell ref="B12:Q12"/>
     <mergeCell ref="B25:Q25"/>
     <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="B79:Q79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B50:Q50"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B9:Q9"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.2" bottom="0.2" header="0.3" footer="0.3"/>
@@ -3089,8 +3080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3105,24 +3096,24 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="84"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="80"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
@@ -3249,10 +3240,10 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="103"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="27" t="s">
         <v>15</v>
       </c>
@@ -3295,8 +3286,8 @@
       <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="78"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="30" t="s">
         <v>56</v>
       </c>
@@ -3308,11 +3299,11 @@
       <c r="G10" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="63"/>
+      <c r="H10" s="61"/>
       <c r="I10" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="61"/>
       <c r="K10" s="30" t="s">
         <v>60</v>
       </c>
@@ -3325,8 +3316,8 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="78"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="30" t="s">
         <v>56</v>
       </c>
@@ -3338,11 +3329,11 @@
       <c r="G11" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="63"/>
+      <c r="H11" s="61"/>
       <c r="I11" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="63"/>
+      <c r="J11" s="61"/>
       <c r="K11" s="30" t="s">
         <v>60</v>
       </c>
@@ -3356,7 +3347,7 @@
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="130"/>
-      <c r="B12" s="78"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="30" t="s">
         <v>56</v>
       </c>
@@ -3386,7 +3377,7 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="130"/>
-      <c r="B13" s="78"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="30" t="s">
         <v>56</v>
       </c>
@@ -3416,7 +3407,7 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="130"/>
-      <c r="B14" s="78"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="30" t="s">
         <v>56</v>
       </c>
@@ -3446,7 +3437,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="130"/>
-      <c r="B15" s="78"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="30" t="s">
         <v>56</v>
       </c>
@@ -3476,7 +3467,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="130"/>
-      <c r="B16" s="78"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="30" t="s">
         <v>56</v>
       </c>
@@ -3505,59 +3496,59 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="134"/>
-      <c r="B17" s="135"/>
-      <c r="C17" s="56">
+      <c r="A17" s="131"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="54">
         <v>16.96</v>
       </c>
       <c r="D17" s="32">
         <f>SUM(D10:D16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="54">
         <v>7.95</v>
       </c>
       <c r="F17" s="32">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="54">
         <v>26.5</v>
       </c>
       <c r="H17" s="32">
         <f>SUM(H10:H16)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="56">
+      <c r="I17" s="54">
         <v>7.42</v>
       </c>
       <c r="J17" s="32">
         <f>SUM(J10:J16)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="56">
+      <c r="K17" s="54">
         <v>21.2</v>
       </c>
       <c r="L17" s="32">
         <f>SUM(L10:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="56">
+      <c r="M17" s="54">
         <v>6.36</v>
       </c>
       <c r="N17" s="32">
         <f>SUM(N10:N16)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="64">
+      <c r="O17" s="62">
         <f>(C17*D17)+(E17*F17)+(G17*H17)+(I17*J17)+(K17*L17)+(M17*N17)</f>
         <v>0</v>
       </c>
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="33" t="s">
         <v>73</v>
       </c>
@@ -3582,12 +3573,12 @@
       <c r="L18" s="36"/>
       <c r="M18" s="37"/>
       <c r="N18" s="36"/>
-      <c r="O18" s="50"/>
+      <c r="O18" s="48"/>
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="93"/>
       <c r="C19" s="38" t="s">
         <v>76</v>
       </c>
@@ -3606,12 +3597,12 @@
       <c r="L19" s="30"/>
       <c r="M19" s="38"/>
       <c r="N19" s="30"/>
-      <c r="O19" s="50"/>
+      <c r="O19" s="48"/>
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="38" t="s">
         <v>76</v>
       </c>
@@ -3630,12 +3621,12 @@
       <c r="L20" s="30"/>
       <c r="M20" s="38"/>
       <c r="N20" s="30"/>
-      <c r="O20" s="50"/>
+      <c r="O20" s="48"/>
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="93"/>
       <c r="C21" s="38" t="s">
         <v>76</v>
       </c>
@@ -3654,12 +3645,12 @@
       <c r="L21" s="30"/>
       <c r="M21" s="38"/>
       <c r="N21" s="30"/>
-      <c r="O21" s="50"/>
+      <c r="O21" s="48"/>
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="38" t="s">
         <v>76</v>
       </c>
@@ -3678,12 +3669,12 @@
       <c r="L22" s="30"/>
       <c r="M22" s="38"/>
       <c r="N22" s="30"/>
-      <c r="O22" s="50"/>
+      <c r="O22" s="48"/>
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="130"/>
-      <c r="B23" s="78"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="38" t="s">
         <v>76</v>
       </c>
@@ -3702,27 +3693,27 @@
       <c r="L23" s="30"/>
       <c r="M23" s="38"/>
       <c r="N23" s="30"/>
-      <c r="O23" s="50"/>
+      <c r="O23" s="48"/>
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="132"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="59">
+      <c r="A24" s="127"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="57">
         <v>21.2</v>
       </c>
       <c r="D24" s="36">
         <f>SUM(D19:D23)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="59">
+      <c r="E24" s="57">
         <v>39.22</v>
       </c>
       <c r="F24" s="36">
         <f>SUM(F19:F23)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="59">
+      <c r="G24" s="57">
         <v>7.95</v>
       </c>
       <c r="H24" s="36">
@@ -3735,30 +3726,30 @@
       <c r="L24" s="36"/>
       <c r="M24" s="37"/>
       <c r="N24" s="36"/>
-      <c r="O24" s="50">
+      <c r="O24" s="48">
         <f>+((C24*D24)+(E24*F24)+(G24*H24))*1.06</f>
         <v>0</v>
       </c>
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="131" t="s">
+      <c r="A25" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="133"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="64">
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="62">
         <f>SUM(O10:O24)</f>
         <v>0</v>
       </c>
@@ -3784,22 +3775,28 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="57">
+        <v>98</v>
+      </c>
+      <c r="D27" s="55">
         <v>63.6</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="57">
+        <v>99</v>
+      </c>
+      <c r="D28" s="55">
         <v>22.79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="18">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:N25"/>
     <mergeCell ref="A14:B14"/>
@@ -3808,12 +3805,10 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
